--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/应收账款净额.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/应收账款净额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>505.44604</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1108.60382</v>
-      </c>
-      <c r="D2" t="n">
-        <v>188.52898</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.45445</v>
-      </c>
-      <c r="F2" t="n">
-        <v>116.17926</v>
-      </c>
-      <c r="G2" t="n">
-        <v>971.04905</v>
-      </c>
-      <c r="H2" t="n">
-        <v>94.52843</v>
-      </c>
-      <c r="I2" t="n">
-        <v>452.50732</v>
-      </c>
-      <c r="J2" t="n">
-        <v>135.84521</v>
-      </c>
-      <c r="K2" t="n">
-        <v>318.93878</v>
-      </c>
-      <c r="L2" t="n">
-        <v>49.99838</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91.87973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>859.97518</v>
-      </c>
-      <c r="O2" t="n">
-        <v>263.18856</v>
-      </c>
-      <c r="P2" t="n">
-        <v>36.67655</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>257.74201</v>
-      </c>
-      <c r="R2" t="n">
-        <v>64.30216</v>
-      </c>
-      <c r="S2" t="n">
-        <v>31.70181</v>
-      </c>
-      <c r="T2" t="n">
-        <v>183.25152</v>
-      </c>
-      <c r="U2" t="n">
-        <v>179.75128</v>
-      </c>
-      <c r="V2" t="n">
-        <v>42.04374</v>
-      </c>
-      <c r="W2" t="n">
-        <v>521.93475</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1321.65145</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1651.1434</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1020.94605</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>155.12719</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>288.99053</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>194.77115</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>544.3095</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>63.70534</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14789.8028</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>306.40356</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>433.17629</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>732.65074</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>88.53299</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>175.71516</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>301.3244</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>226.93843</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>702.88532</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>40.20106</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>503.92077</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.42705</v>
-      </c>
-      <c r="D3" t="n">
-        <v>203.76608</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.29097</v>
-      </c>
-      <c r="F3" t="n">
-        <v>124.60434</v>
-      </c>
-      <c r="G3" t="n">
-        <v>907.77142</v>
-      </c>
-      <c r="H3" t="n">
-        <v>77.92333000000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>483.71852</v>
-      </c>
-      <c r="J3" t="n">
-        <v>136.0002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>341.24811</v>
-      </c>
-      <c r="L3" t="n">
-        <v>50.45677</v>
-      </c>
-      <c r="M3" t="n">
-        <v>103.09896</v>
-      </c>
-      <c r="N3" t="n">
-        <v>890.6849099999999</v>
-      </c>
-      <c r="O3" t="n">
-        <v>267.60271</v>
-      </c>
-      <c r="P3" t="n">
-        <v>37.75752</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>263.25344</v>
-      </c>
-      <c r="R3" t="n">
-        <v>63.60641</v>
-      </c>
-      <c r="S3" t="n">
-        <v>27.67512</v>
-      </c>
-      <c r="T3" t="n">
-        <v>176.47869</v>
-      </c>
-      <c r="U3" t="n">
-        <v>216.36498</v>
-      </c>
-      <c r="V3" t="n">
-        <v>38.53381</v>
-      </c>
-      <c r="W3" t="n">
-        <v>453.68053</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1372.50186</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1859.74961</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1080.09057</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>165.7058</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>208.61215</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>94.92603</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>561.87053</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>70.65196</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14831.40462</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>316.60474</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>444.81728</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>714.88995</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>84.94606</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>177.79938</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>276.33267</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>222.64995</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>624.47675</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>38.39852</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>544.554</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1119.76116</v>
-      </c>
-      <c r="D4" t="n">
-        <v>245.19151</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="F4" t="n">
-        <v>143.9881</v>
-      </c>
-      <c r="G4" t="n">
-        <v>954.6717599999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>77.12594</v>
-      </c>
-      <c r="I4" t="n">
-        <v>526.17679</v>
-      </c>
-      <c r="J4" t="n">
-        <v>161.86937</v>
-      </c>
-      <c r="K4" t="n">
-        <v>397.53788</v>
-      </c>
-      <c r="L4" t="n">
-        <v>56.42779</v>
-      </c>
-      <c r="M4" t="n">
-        <v>121.69342</v>
-      </c>
-      <c r="N4" t="n">
-        <v>966.73495</v>
-      </c>
-      <c r="O4" t="n">
-        <v>270.06628</v>
-      </c>
-      <c r="P4" t="n">
-        <v>35.36014</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>297.63797</v>
-      </c>
-      <c r="R4" t="n">
-        <v>69.78533</v>
-      </c>
-      <c r="S4" t="n">
-        <v>26.64697</v>
-      </c>
-      <c r="T4" t="n">
-        <v>183.27497</v>
-      </c>
-      <c r="U4" t="n">
-        <v>167.06668</v>
-      </c>
-      <c r="V4" t="n">
-        <v>37.75065</v>
-      </c>
-      <c r="W4" t="n">
-        <v>419.03888</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1470.45257</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2232.87615</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1222.00119</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>206.88449</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>173.77895</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>74.97320999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>625.80598</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>75.63706000000001</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>16036.79447</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>350.6159</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>518.07066</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>796.07898</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>78.76012</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>206.35763</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>308.23704</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>221.56249</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>560.34973</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>38.8988</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
